--- a/샘플데이터/샘플-성적데이터.xlsx
+++ b/샘플데이터/샘플-성적데이터.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54669DB3-8F6A-45EF-BE70-7F0F296C39C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D29CFBC1-E054-4879-AD51-6D352634EC44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,311 +110,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00001</t>
+    <t>S0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>00007</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>00013</t>
-  </si>
-  <si>
-    <t>00014</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>00016</t>
-  </si>
-  <si>
-    <t>00017</t>
-  </si>
-  <si>
-    <t>00018</t>
-  </si>
-  <si>
-    <t>00019</t>
-  </si>
-  <si>
-    <t>00020</t>
-  </si>
-  <si>
-    <t>00021</t>
-  </si>
-  <si>
-    <t>00022</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>00025</t>
-  </si>
-  <si>
-    <t>00026</t>
-  </si>
-  <si>
-    <t>00027</t>
-  </si>
-  <si>
-    <t>00028</t>
-  </si>
-  <si>
-    <t>00029</t>
-  </si>
-  <si>
-    <t>00030</t>
-  </si>
-  <si>
-    <t>00031</t>
-  </si>
-  <si>
-    <t>00032</t>
-  </si>
-  <si>
-    <t>00033</t>
-  </si>
-  <si>
-    <t>00034</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
-    <t>00036</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>00038</t>
-  </si>
-  <si>
-    <t>00039</t>
-  </si>
-  <si>
-    <t>00040</t>
-  </si>
-  <si>
-    <t>00041</t>
-  </si>
-  <si>
-    <t>00042</t>
-  </si>
-  <si>
-    <t>00043</t>
-  </si>
-  <si>
-    <t>00044</t>
-  </si>
-  <si>
-    <t>00045</t>
-  </si>
-  <si>
-    <t>00046</t>
-  </si>
-  <si>
-    <t>00047</t>
-  </si>
-  <si>
-    <t>00048</t>
-  </si>
-  <si>
-    <t>00049</t>
-  </si>
-  <si>
-    <t>00050</t>
-  </si>
-  <si>
-    <t>00051</t>
-  </si>
-  <si>
-    <t>00052</t>
-  </si>
-  <si>
-    <t>00053</t>
-  </si>
-  <si>
-    <t>00054</t>
-  </si>
-  <si>
-    <t>00055</t>
-  </si>
-  <si>
-    <t>00056</t>
-  </si>
-  <si>
-    <t>00057</t>
-  </si>
-  <si>
-    <t>00058</t>
-  </si>
-  <si>
-    <t>00059</t>
-  </si>
-  <si>
-    <t>00060</t>
-  </si>
-  <si>
-    <t>00061</t>
-  </si>
-  <si>
-    <t>00062</t>
-  </si>
-  <si>
-    <t>00063</t>
-  </si>
-  <si>
-    <t>00064</t>
-  </si>
-  <si>
-    <t>00065</t>
-  </si>
-  <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>00067</t>
-  </si>
-  <si>
-    <t>00068</t>
-  </si>
-  <si>
-    <t>00069</t>
-  </si>
-  <si>
-    <t>00070</t>
-  </si>
-  <si>
-    <t>00071</t>
-  </si>
-  <si>
-    <t>00072</t>
-  </si>
-  <si>
-    <t>00073</t>
-  </si>
-  <si>
-    <t>00074</t>
-  </si>
-  <si>
-    <t>00075</t>
-  </si>
-  <si>
-    <t>00076</t>
-  </si>
-  <si>
-    <t>00077</t>
-  </si>
-  <si>
-    <t>00078</t>
-  </si>
-  <si>
-    <t>00079</t>
-  </si>
-  <si>
-    <t>00080</t>
-  </si>
-  <si>
-    <t>00081</t>
-  </si>
-  <si>
-    <t>00082</t>
-  </si>
-  <si>
-    <t>00083</t>
-  </si>
-  <si>
-    <t>00084</t>
-  </si>
-  <si>
-    <t>00085</t>
-  </si>
-  <si>
-    <t>00086</t>
-  </si>
-  <si>
-    <t>00087</t>
-  </si>
-  <si>
-    <t>00088</t>
-  </si>
-  <si>
-    <t>00089</t>
-  </si>
-  <si>
-    <t>00090</t>
-  </si>
-  <si>
-    <t>00091</t>
-  </si>
-  <si>
-    <t>00092</t>
-  </si>
-  <si>
-    <t>00093</t>
-  </si>
-  <si>
-    <t>00094</t>
-  </si>
-  <si>
-    <t>00095</t>
-  </si>
-  <si>
-    <t>00096</t>
-  </si>
-  <si>
-    <t>00097</t>
-  </si>
-  <si>
-    <t>00098</t>
-  </si>
-  <si>
-    <t>00099</t>
-  </si>
-  <si>
-    <t>00100</t>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>S0008</t>
+  </si>
+  <si>
+    <t>S0009</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>S0019</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>S0023</t>
+  </si>
+  <si>
+    <t>S0024</t>
+  </si>
+  <si>
+    <t>S0025</t>
+  </si>
+  <si>
+    <t>S0026</t>
+  </si>
+  <si>
+    <t>S0027</t>
+  </si>
+  <si>
+    <t>S0028</t>
+  </si>
+  <si>
+    <t>S0029</t>
+  </si>
+  <si>
+    <t>S0030</t>
+  </si>
+  <si>
+    <t>S0031</t>
+  </si>
+  <si>
+    <t>S0032</t>
+  </si>
+  <si>
+    <t>S0033</t>
+  </si>
+  <si>
+    <t>S0034</t>
+  </si>
+  <si>
+    <t>S0035</t>
+  </si>
+  <si>
+    <t>S0036</t>
+  </si>
+  <si>
+    <t>S0037</t>
+  </si>
+  <si>
+    <t>S0038</t>
+  </si>
+  <si>
+    <t>S0039</t>
+  </si>
+  <si>
+    <t>S0040</t>
+  </si>
+  <si>
+    <t>S0041</t>
+  </si>
+  <si>
+    <t>S0042</t>
+  </si>
+  <si>
+    <t>S0043</t>
+  </si>
+  <si>
+    <t>S0044</t>
+  </si>
+  <si>
+    <t>S0045</t>
+  </si>
+  <si>
+    <t>S0046</t>
+  </si>
+  <si>
+    <t>S0047</t>
+  </si>
+  <si>
+    <t>S0048</t>
+  </si>
+  <si>
+    <t>S0049</t>
+  </si>
+  <si>
+    <t>S0050</t>
+  </si>
+  <si>
+    <t>S0051</t>
+  </si>
+  <si>
+    <t>S0052</t>
+  </si>
+  <si>
+    <t>S0053</t>
+  </si>
+  <si>
+    <t>S0054</t>
+  </si>
+  <si>
+    <t>S0055</t>
+  </si>
+  <si>
+    <t>S0056</t>
+  </si>
+  <si>
+    <t>S0057</t>
+  </si>
+  <si>
+    <t>S0058</t>
+  </si>
+  <si>
+    <t>S0059</t>
+  </si>
+  <si>
+    <t>S0060</t>
+  </si>
+  <si>
+    <t>S0061</t>
+  </si>
+  <si>
+    <t>S0062</t>
+  </si>
+  <si>
+    <t>S0063</t>
+  </si>
+  <si>
+    <t>S0064</t>
+  </si>
+  <si>
+    <t>S0065</t>
+  </si>
+  <si>
+    <t>S0066</t>
+  </si>
+  <si>
+    <t>S0067</t>
+  </si>
+  <si>
+    <t>S0068</t>
+  </si>
+  <si>
+    <t>S0069</t>
+  </si>
+  <si>
+    <t>S0070</t>
+  </si>
+  <si>
+    <t>S0071</t>
+  </si>
+  <si>
+    <t>S0072</t>
+  </si>
+  <si>
+    <t>S0073</t>
+  </si>
+  <si>
+    <t>S0074</t>
+  </si>
+  <si>
+    <t>S0075</t>
+  </si>
+  <si>
+    <t>S0076</t>
+  </si>
+  <si>
+    <t>S0077</t>
+  </si>
+  <si>
+    <t>S0078</t>
+  </si>
+  <si>
+    <t>S0079</t>
+  </si>
+  <si>
+    <t>S0080</t>
+  </si>
+  <si>
+    <t>S0081</t>
+  </si>
+  <si>
+    <t>S0082</t>
+  </si>
+  <si>
+    <t>S0083</t>
+  </si>
+  <si>
+    <t>S0084</t>
+  </si>
+  <si>
+    <t>S0085</t>
+  </si>
+  <si>
+    <t>S0086</t>
+  </si>
+  <si>
+    <t>S0087</t>
+  </si>
+  <si>
+    <t>S0088</t>
+  </si>
+  <si>
+    <t>S0089</t>
+  </si>
+  <si>
+    <t>S0090</t>
+  </si>
+  <si>
+    <t>S0091</t>
+  </si>
+  <si>
+    <t>S0092</t>
+  </si>
+  <si>
+    <t>S0093</t>
+  </si>
+  <si>
+    <t>S0094</t>
+  </si>
+  <si>
+    <t>S0095</t>
+  </si>
+  <si>
+    <t>S0096</t>
+  </si>
+  <si>
+    <t>S0097</t>
+  </si>
+  <si>
+    <t>S0098</t>
+  </si>
+  <si>
+    <t>S0099</t>
+  </si>
+  <si>
+    <t>S0100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB022AF-E156-479D-81E6-BF8A0A42F43B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
